--- a/Evalution/preds_rerun_new/_parsed_log_data.xlsx
+++ b/Evalution/preds_rerun_new/_parsed_log_data.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,45 +472,67 @@
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="3" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="3" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -654,6 +676,76 @@
           <t>total_cache</t>
         </is>
       </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -702,45 +794,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P4" t="n">
-        <v>1740287687.242</v>
+        <v>1740343553.242</v>
       </c>
       <c r="Q4" t="n">
         <v>609</v>
       </c>
       <c r="R4" t="n">
-        <v>7999</v>
+        <v>392</v>
       </c>
       <c r="S4" t="n">
         <v>8608</v>
       </c>
       <c r="T4" t="n">
-        <v>4513.071104</v>
+        <v>524.812288</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V4" t="n">
-        <v>4513.071104</v>
+        <v>528.912384</v>
       </c>
       <c r="W4" t="n">
-        <v>1740197695.958</v>
+        <v>1740287687.242</v>
       </c>
       <c r="X4" t="n">
         <v>609</v>
       </c>
       <c r="Y4" t="n">
-        <v>3392</v>
+        <v>7999</v>
       </c>
       <c r="Z4" t="n">
         <v>8608</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.419072</v>
+        <v>4513.071104</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4513.071104</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1740369925.267</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>609</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3392</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8608</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1740197695.958</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>609</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3392</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8608</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP4" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AQ4" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -791,45 +925,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P5" t="n">
-        <v>510.8149998188019</v>
+        <v>982.9039998054504</v>
       </c>
       <c r="Q5" t="n">
         <v>612</v>
       </c>
       <c r="R5" t="n">
-        <v>7999</v>
+        <v>389</v>
       </c>
       <c r="S5" t="n">
         <v>8611</v>
       </c>
       <c r="T5" t="n">
-        <v>4514.643968</v>
+        <v>524.812288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V5" t="n">
-        <v>4514.643968</v>
+        <v>528.912384</v>
       </c>
       <c r="W5" t="n">
-        <v>1880.232000112534</v>
+        <v>510.8149998188019</v>
       </c>
       <c r="X5" t="n">
         <v>612</v>
       </c>
       <c r="Y5" t="n">
-        <v>3389</v>
+        <v>7999</v>
       </c>
       <c r="Z5" t="n">
         <v>8611</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.419072</v>
+        <v>4514.643968</v>
       </c>
       <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4514.643968</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1306.828999996185</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>612</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3389</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8611</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1880.232000112534</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>612</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3389</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8611</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP5" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AQ5" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -880,45 +1056,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P6" t="n">
-        <v>511.0680000782013</v>
+        <v>1005.163000106812</v>
       </c>
       <c r="Q6" t="n">
         <v>611</v>
       </c>
       <c r="R6" t="n">
-        <v>7999</v>
+        <v>390</v>
       </c>
       <c r="S6" t="n">
         <v>8610</v>
       </c>
       <c r="T6" t="n">
-        <v>4514.11968</v>
+        <v>524.812288</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V6" t="n">
-        <v>4514.11968</v>
+        <v>528.912384</v>
       </c>
       <c r="W6" t="n">
-        <v>1880.273000001907</v>
+        <v>511.0680000782013</v>
       </c>
       <c r="X6" t="n">
         <v>611</v>
       </c>
       <c r="Y6" t="n">
-        <v>3390</v>
+        <v>7999</v>
       </c>
       <c r="Z6" t="n">
         <v>8610</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.419072</v>
+        <v>4514.11968</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4514.11968</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1312.717000007629</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>611</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3390</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8610</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1880.273000001907</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>611</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>3390</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8610</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP6" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AQ6" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -969,45 +1187,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P7" t="n">
-        <v>508.1319999694824</v>
+        <v>993.9900000095367</v>
       </c>
       <c r="Q7" t="n">
         <v>621</v>
       </c>
       <c r="R7" t="n">
-        <v>7999</v>
+        <v>380</v>
       </c>
       <c r="S7" t="n">
         <v>8620</v>
       </c>
       <c r="T7" t="n">
-        <v>4519.36256</v>
+        <v>524.812288</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V7" t="n">
-        <v>4519.36256</v>
+        <v>528.912384</v>
       </c>
       <c r="W7" t="n">
-        <v>1880.258999824524</v>
+        <v>508.1319999694824</v>
       </c>
       <c r="X7" t="n">
         <v>621</v>
       </c>
       <c r="Y7" t="n">
-        <v>3380</v>
+        <v>7999</v>
       </c>
       <c r="Z7" t="n">
         <v>8620</v>
       </c>
       <c r="AA7" t="n">
-        <v>524.419072</v>
+        <v>4519.36256</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4519.36256</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1315.590000152588</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>621</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8620</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1880.258999824524</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>621</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8620</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP7" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AQ7" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1058,45 +1318,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P8" t="n">
-        <v>503.4140000343323</v>
+        <v>1003.035000085831</v>
       </c>
       <c r="Q8" t="n">
         <v>615</v>
       </c>
       <c r="R8" t="n">
-        <v>7999</v>
+        <v>386</v>
       </c>
       <c r="S8" t="n">
         <v>8614</v>
       </c>
       <c r="T8" t="n">
-        <v>4516.216832</v>
+        <v>524.812288</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V8" t="n">
-        <v>4516.216832</v>
+        <v>528.912384</v>
       </c>
       <c r="W8" t="n">
-        <v>1879.538000106812</v>
+        <v>503.4140000343323</v>
       </c>
       <c r="X8" t="n">
         <v>615</v>
       </c>
       <c r="Y8" t="n">
-        <v>3386</v>
+        <v>7999</v>
       </c>
       <c r="Z8" t="n">
         <v>8614</v>
       </c>
       <c r="AA8" t="n">
-        <v>524.419072</v>
+        <v>4516.216832</v>
       </c>
       <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4516.216832</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1311.390999794006</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>615</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3386</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8614</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1879.538000106812</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>615</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3386</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8614</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP8" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AQ8" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1147,45 +1449,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P9" t="n">
-        <v>507.4170000553131</v>
+        <v>1001.894999980927</v>
       </c>
       <c r="Q9" t="n">
         <v>615</v>
       </c>
       <c r="R9" t="n">
-        <v>7999</v>
+        <v>386</v>
       </c>
       <c r="S9" t="n">
         <v>8614</v>
       </c>
       <c r="T9" t="n">
-        <v>4516.216832</v>
+        <v>524.812288</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V9" t="n">
-        <v>4516.216832</v>
+        <v>528.912384</v>
       </c>
       <c r="W9" t="n">
-        <v>1878.533999919891</v>
+        <v>507.4170000553131</v>
       </c>
       <c r="X9" t="n">
         <v>615</v>
       </c>
       <c r="Y9" t="n">
-        <v>3386</v>
+        <v>7999</v>
       </c>
       <c r="Z9" t="n">
         <v>8614</v>
       </c>
       <c r="AA9" t="n">
-        <v>524.419072</v>
+        <v>4516.216832</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4516.216832</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1306.97200012207</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>615</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3386</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8614</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1878.533999919891</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>615</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>3386</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8614</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP9" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AQ9" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1236,45 +1580,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P10" t="n">
-        <v>492.0539999008179</v>
+        <v>995.8359999656677</v>
       </c>
       <c r="Q10" t="n">
         <v>614</v>
       </c>
       <c r="R10" t="n">
-        <v>7999</v>
+        <v>387</v>
       </c>
       <c r="S10" t="n">
         <v>8613</v>
       </c>
       <c r="T10" t="n">
-        <v>4515.692544</v>
+        <v>524.812288</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V10" t="n">
-        <v>4515.692544</v>
+        <v>528.912384</v>
       </c>
       <c r="W10" t="n">
-        <v>1882.212000131607</v>
+        <v>492.0539999008179</v>
       </c>
       <c r="X10" t="n">
         <v>614</v>
       </c>
       <c r="Y10" t="n">
-        <v>3387</v>
+        <v>7999</v>
       </c>
       <c r="Z10" t="n">
         <v>8613</v>
       </c>
       <c r="AA10" t="n">
-        <v>524.419072</v>
+        <v>4515.692544</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4515.692544</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1306.213000059128</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>614</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3387</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8613</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1882.212000131607</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>614</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3387</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8613</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP10" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AQ10" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1325,45 +1711,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5420000553131</v>
+        <v>998.800999879837</v>
       </c>
       <c r="Q11" t="n">
         <v>613</v>
       </c>
       <c r="R11" t="n">
-        <v>7999</v>
+        <v>388</v>
       </c>
       <c r="S11" t="n">
         <v>8612</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.168256</v>
+        <v>524.812288</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V11" t="n">
-        <v>4515.168256</v>
+        <v>528.912384</v>
       </c>
       <c r="W11" t="n">
-        <v>1878.980999946594</v>
+        <v>502.5420000553131</v>
       </c>
       <c r="X11" t="n">
         <v>613</v>
       </c>
       <c r="Y11" t="n">
-        <v>3388</v>
+        <v>7999</v>
       </c>
       <c r="Z11" t="n">
         <v>8612</v>
       </c>
       <c r="AA11" t="n">
-        <v>524.419072</v>
+        <v>4515.168256</v>
       </c>
       <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4515.168256</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1119.949999809265</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>613</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1878.980999946594</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>613</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP11" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AQ11" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1414,45 +1842,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P12" t="n">
-        <v>489.9530000686646</v>
+        <v>984.074000120163</v>
       </c>
       <c r="Q12" t="n">
         <v>613</v>
       </c>
       <c r="R12" t="n">
-        <v>7999</v>
+        <v>388</v>
       </c>
       <c r="S12" t="n">
         <v>8612</v>
       </c>
       <c r="T12" t="n">
-        <v>4515.168256</v>
+        <v>524.812288</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V12" t="n">
-        <v>4515.168256</v>
+        <v>528.912384</v>
       </c>
       <c r="W12" t="n">
-        <v>1882.898000001907</v>
+        <v>489.9530000686646</v>
       </c>
       <c r="X12" t="n">
         <v>613</v>
       </c>
       <c r="Y12" t="n">
-        <v>3388</v>
+        <v>7999</v>
       </c>
       <c r="Z12" t="n">
         <v>8612</v>
       </c>
       <c r="AA12" t="n">
-        <v>524.419072</v>
+        <v>4515.168256</v>
       </c>
       <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4515.168256</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1007.53400015831</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>613</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1882.898000001907</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>613</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP12" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AQ12" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1503,45 +1973,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P13" t="n">
-        <v>488.3369998931885</v>
+        <v>979.4059998989105</v>
       </c>
       <c r="Q13" t="n">
         <v>613</v>
       </c>
       <c r="R13" t="n">
-        <v>7999</v>
+        <v>388</v>
       </c>
       <c r="S13" t="n">
         <v>8612</v>
       </c>
       <c r="T13" t="n">
-        <v>4515.168256</v>
+        <v>524.812288</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V13" t="n">
-        <v>4515.168256</v>
+        <v>528.912384</v>
       </c>
       <c r="W13" t="n">
-        <v>1859.887000083923</v>
+        <v>488.3369998931885</v>
       </c>
       <c r="X13" t="n">
         <v>613</v>
       </c>
       <c r="Y13" t="n">
-        <v>3388</v>
+        <v>7999</v>
       </c>
       <c r="Z13" t="n">
         <v>8612</v>
       </c>
       <c r="AA13" t="n">
-        <v>524.419072</v>
+        <v>4515.168256</v>
       </c>
       <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4515.168256</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1013.036000013351</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>613</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1859.887000083923</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>613</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8612</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP13" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AQ13" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1592,45 +2104,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P14" t="n">
-        <v>495.7720000743866</v>
+        <v>985.0260000228882</v>
       </c>
       <c r="Q14" t="n">
         <v>436</v>
       </c>
       <c r="R14" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="S14" t="n">
         <v>8435</v>
       </c>
       <c r="T14" t="n">
-        <v>4422.36928</v>
+        <v>524.812288</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V14" t="n">
-        <v>4422.36928</v>
+        <v>528.912384</v>
       </c>
       <c r="W14" t="n">
-        <v>1838.356999874115</v>
+        <v>495.7720000743866</v>
       </c>
       <c r="X14" t="n">
         <v>436</v>
       </c>
       <c r="Y14" t="n">
-        <v>3565</v>
+        <v>7999</v>
       </c>
       <c r="Z14" t="n">
         <v>8435</v>
       </c>
       <c r="AA14" t="n">
-        <v>524.419072</v>
+        <v>4422.36928</v>
       </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4422.36928</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>979.305999994278</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>436</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1838.356999874115</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>436</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP14" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AQ14" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1681,45 +2235,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P15" t="n">
-        <v>493.0069999694824</v>
+        <v>978.2190001010895</v>
       </c>
       <c r="Q15" t="n">
         <v>433</v>
       </c>
       <c r="R15" t="n">
-        <v>7999</v>
+        <v>568</v>
       </c>
       <c r="S15" t="n">
         <v>8432</v>
       </c>
       <c r="T15" t="n">
-        <v>4420.796416</v>
+        <v>524.812288</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V15" t="n">
-        <v>4420.796416</v>
+        <v>528.912384</v>
       </c>
       <c r="W15" t="n">
-        <v>1820.712000131607</v>
+        <v>493.0069999694824</v>
       </c>
       <c r="X15" t="n">
         <v>433</v>
       </c>
       <c r="Y15" t="n">
-        <v>3568</v>
+        <v>7999</v>
       </c>
       <c r="Z15" t="n">
         <v>8432</v>
       </c>
       <c r="AA15" t="n">
-        <v>524.419072</v>
+        <v>4420.796416</v>
       </c>
       <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4420.796416</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>992.1610000133514</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>433</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8432</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1820.712000131607</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>433</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8432</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP15" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AQ15" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1770,45 +2366,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P16" t="n">
-        <v>508.2170000076294</v>
+        <v>971.8819999694824</v>
       </c>
       <c r="Q16" t="n">
         <v>440</v>
       </c>
       <c r="R16" t="n">
-        <v>7999</v>
+        <v>561</v>
       </c>
       <c r="S16" t="n">
         <v>8439</v>
       </c>
       <c r="T16" t="n">
-        <v>4424.466432</v>
+        <v>524.812288</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V16" t="n">
-        <v>4424.466432</v>
+        <v>528.912384</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.343999862671</v>
+        <v>508.2170000076294</v>
       </c>
       <c r="X16" t="n">
         <v>440</v>
       </c>
       <c r="Y16" t="n">
-        <v>3561</v>
+        <v>7999</v>
       </c>
       <c r="Z16" t="n">
         <v>8439</v>
       </c>
       <c r="AA16" t="n">
-        <v>524.419072</v>
+        <v>4424.466432</v>
       </c>
       <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4424.466432</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>980.3199999332428</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3561</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8439</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1838.343999862671</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>440</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>3561</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8439</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP16" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AQ16" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1859,45 +2497,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P17" t="n">
-        <v>495.4609999656677</v>
+        <v>972.1679999828339</v>
       </c>
       <c r="Q17" t="n">
         <v>436</v>
       </c>
       <c r="R17" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="S17" t="n">
         <v>8435</v>
       </c>
       <c r="T17" t="n">
-        <v>4422.36928</v>
+        <v>524.812288</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V17" t="n">
-        <v>4422.36928</v>
+        <v>528.912384</v>
       </c>
       <c r="W17" t="n">
-        <v>1818.463000059128</v>
+        <v>495.4609999656677</v>
       </c>
       <c r="X17" t="n">
         <v>436</v>
       </c>
       <c r="Y17" t="n">
-        <v>3565</v>
+        <v>7999</v>
       </c>
       <c r="Z17" t="n">
         <v>8435</v>
       </c>
       <c r="AA17" t="n">
-        <v>524.419072</v>
+        <v>4422.36928</v>
       </c>
       <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4422.36928</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>990.0710000991821</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>436</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1818.463000059128</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>436</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP17" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AQ17" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -1948,45 +2628,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P18" t="n">
-        <v>515.7190001010895</v>
+        <v>977.0199999809265</v>
       </c>
       <c r="Q18" t="n">
         <v>434</v>
       </c>
       <c r="R18" t="n">
-        <v>7999</v>
+        <v>567</v>
       </c>
       <c r="S18" t="n">
         <v>8433</v>
       </c>
       <c r="T18" t="n">
-        <v>4421.320704</v>
+        <v>524.812288</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V18" t="n">
-        <v>4421.320704</v>
+        <v>528.912384</v>
       </c>
       <c r="W18" t="n">
-        <v>1839.568000078201</v>
+        <v>515.7190001010895</v>
       </c>
       <c r="X18" t="n">
         <v>434</v>
       </c>
       <c r="Y18" t="n">
-        <v>3567</v>
+        <v>7999</v>
       </c>
       <c r="Z18" t="n">
         <v>8433</v>
       </c>
       <c r="AA18" t="n">
-        <v>524.419072</v>
+        <v>4421.320704</v>
       </c>
       <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4421.320704</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>991.992999792099</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>434</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3567</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8433</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1839.568000078201</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>434</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3567</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>8433</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP18" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AQ18" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2037,45 +2759,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P19" t="n">
-        <v>512.5009999275208</v>
+        <v>964.4930000305176</v>
       </c>
       <c r="Q19" t="n">
         <v>436</v>
       </c>
       <c r="R19" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="S19" t="n">
         <v>8435</v>
       </c>
       <c r="T19" t="n">
-        <v>4422.36928</v>
+        <v>524.812288</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V19" t="n">
-        <v>4422.36928</v>
+        <v>528.912384</v>
       </c>
       <c r="W19" t="n">
-        <v>1824.43700003624</v>
+        <v>512.5009999275208</v>
       </c>
       <c r="X19" t="n">
         <v>436</v>
       </c>
       <c r="Y19" t="n">
-        <v>3565</v>
+        <v>7999</v>
       </c>
       <c r="Z19" t="n">
         <v>8435</v>
       </c>
       <c r="AA19" t="n">
-        <v>524.419072</v>
+        <v>4422.36928</v>
       </c>
       <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4422.36928</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>978.1130001544952</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>436</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1824.43700003624</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>436</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP19" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AQ19" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2126,45 +2890,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P20" t="n">
-        <v>512.7109999656677</v>
+        <v>972.7760000228882</v>
       </c>
       <c r="Q20" t="n">
         <v>433</v>
       </c>
       <c r="R20" t="n">
-        <v>7999</v>
+        <v>568</v>
       </c>
       <c r="S20" t="n">
         <v>8432</v>
       </c>
       <c r="T20" t="n">
-        <v>4420.796416</v>
+        <v>524.812288</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V20" t="n">
-        <v>4420.796416</v>
+        <v>528.912384</v>
       </c>
       <c r="W20" t="n">
-        <v>1842.010999917984</v>
+        <v>512.7109999656677</v>
       </c>
       <c r="X20" t="n">
         <v>433</v>
       </c>
       <c r="Y20" t="n">
-        <v>3568</v>
+        <v>7999</v>
       </c>
       <c r="Z20" t="n">
         <v>8432</v>
       </c>
       <c r="AA20" t="n">
-        <v>524.419072</v>
+        <v>4420.796416</v>
       </c>
       <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>4420.796416</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>979.9079999923706</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>433</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8432</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1842.010999917984</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>433</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>8432</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP20" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AQ20" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2215,45 +3021,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P21" t="n">
-        <v>513.3489999771118</v>
+        <v>965.5499999523163</v>
       </c>
       <c r="Q21" t="n">
         <v>436</v>
       </c>
       <c r="R21" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="S21" t="n">
         <v>8435</v>
       </c>
       <c r="T21" t="n">
-        <v>4422.36928</v>
+        <v>524.812288</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V21" t="n">
-        <v>4422.36928</v>
+        <v>528.912384</v>
       </c>
       <c r="W21" t="n">
-        <v>1842.536000013351</v>
+        <v>513.3489999771118</v>
       </c>
       <c r="X21" t="n">
         <v>436</v>
       </c>
       <c r="Y21" t="n">
-        <v>3565</v>
+        <v>7999</v>
       </c>
       <c r="Z21" t="n">
         <v>8435</v>
       </c>
       <c r="AA21" t="n">
-        <v>524.419072</v>
+        <v>4422.36928</v>
       </c>
       <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4422.36928</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>981.5009999275208</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>436</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1842.536000013351</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>436</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP21" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AQ21" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2304,45 +3152,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P22" t="n">
-        <v>513.3029999732971</v>
+        <v>981.1370000839233</v>
       </c>
       <c r="Q22" t="n">
         <v>437</v>
       </c>
       <c r="R22" t="n">
-        <v>7999</v>
+        <v>564</v>
       </c>
       <c r="S22" t="n">
         <v>8436</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.893568</v>
+        <v>524.812288</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V22" t="n">
-        <v>4422.893568</v>
+        <v>528.912384</v>
       </c>
       <c r="W22" t="n">
-        <v>1841.409999847412</v>
+        <v>513.3029999732971</v>
       </c>
       <c r="X22" t="n">
         <v>437</v>
       </c>
       <c r="Y22" t="n">
-        <v>3564</v>
+        <v>7999</v>
       </c>
       <c r="Z22" t="n">
         <v>8436</v>
       </c>
       <c r="AA22" t="n">
-        <v>524.419072</v>
+        <v>4422.893568</v>
       </c>
       <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4422.893568</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>983.3800001144409</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>437</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>3564</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8436</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1841.409999847412</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>437</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>3564</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>8436</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP22" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AQ22" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2393,45 +3283,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P23" t="n">
-        <v>515.0120000839233</v>
+        <v>978.789999961853</v>
       </c>
       <c r="Q23" t="n">
         <v>436</v>
       </c>
       <c r="R23" t="n">
-        <v>7999</v>
+        <v>565</v>
       </c>
       <c r="S23" t="n">
         <v>8435</v>
       </c>
       <c r="T23" t="n">
-        <v>4422.36928</v>
+        <v>524.812288</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V23" t="n">
-        <v>4422.36928</v>
+        <v>528.912384</v>
       </c>
       <c r="W23" t="n">
-        <v>1839.778000116348</v>
+        <v>515.0120000839233</v>
       </c>
       <c r="X23" t="n">
         <v>436</v>
       </c>
       <c r="Y23" t="n">
-        <v>3565</v>
+        <v>7999</v>
       </c>
       <c r="Z23" t="n">
         <v>8435</v>
       </c>
       <c r="AA23" t="n">
-        <v>524.419072</v>
+        <v>4422.36928</v>
       </c>
       <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4422.36928</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>983.2879998683929</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>436</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1839.778000116348</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>436</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>8435</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP23" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AQ23" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2482,45 +3414,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P24" t="n">
-        <v>520.3259999752045</v>
+        <v>1001.912999868393</v>
       </c>
       <c r="Q24" t="n">
         <v>752</v>
       </c>
       <c r="R24" t="n">
-        <v>7999</v>
+        <v>249</v>
       </c>
       <c r="S24" t="n">
         <v>8751</v>
       </c>
       <c r="T24" t="n">
-        <v>4588.044288</v>
+        <v>524.812288</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V24" t="n">
-        <v>4588.044288</v>
+        <v>528.912384</v>
       </c>
       <c r="W24" t="n">
-        <v>1912.775000095367</v>
+        <v>520.3259999752045</v>
       </c>
       <c r="X24" t="n">
         <v>752</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249</v>
+        <v>7999</v>
       </c>
       <c r="Z24" t="n">
         <v>8751</v>
       </c>
       <c r="AA24" t="n">
-        <v>524.419072</v>
+        <v>4588.044288</v>
       </c>
       <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4588.044288</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1014.75200009346</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>752</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>3249</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8751</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1912.775000095367</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>752</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>3249</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8751</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP24" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AQ24" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2571,45 +3545,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P25" t="n">
-        <v>520.1760001182556</v>
+        <v>1018.75200009346</v>
       </c>
       <c r="Q25" t="n">
         <v>754</v>
       </c>
       <c r="R25" t="n">
-        <v>7999</v>
+        <v>247</v>
       </c>
       <c r="S25" t="n">
         <v>8753</v>
       </c>
       <c r="T25" t="n">
-        <v>4589.092864</v>
+        <v>524.812288</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V25" t="n">
-        <v>4589.092864</v>
+        <v>528.912384</v>
       </c>
       <c r="W25" t="n">
-        <v>1919.836999893188</v>
+        <v>520.1760001182556</v>
       </c>
       <c r="X25" t="n">
         <v>754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3247</v>
+        <v>7999</v>
       </c>
       <c r="Z25" t="n">
         <v>8753</v>
       </c>
       <c r="AA25" t="n">
-        <v>524.419072</v>
+        <v>4589.092864</v>
       </c>
       <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>4589.092864</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1014.024999856949</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>754</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3247</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>8753</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1919.836999893188</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>754</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>3247</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>8753</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP25" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AQ25" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2660,45 +3676,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P26" t="n">
-        <v>521.1480000019073</v>
+        <v>800.175999879837</v>
       </c>
       <c r="Q26" t="n">
         <v>762</v>
       </c>
       <c r="R26" t="n">
-        <v>7999</v>
+        <v>239</v>
       </c>
       <c r="S26" t="n">
         <v>8761</v>
       </c>
       <c r="T26" t="n">
-        <v>4593.287168</v>
+        <v>524.812288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V26" t="n">
-        <v>4593.287168</v>
+        <v>528.912384</v>
       </c>
       <c r="W26" t="n">
-        <v>1921.042000055313</v>
+        <v>521.1480000019073</v>
       </c>
       <c r="X26" t="n">
         <v>762</v>
       </c>
       <c r="Y26" t="n">
-        <v>3239</v>
+        <v>7999</v>
       </c>
       <c r="Z26" t="n">
         <v>8761</v>
       </c>
       <c r="AA26" t="n">
-        <v>524.419072</v>
+        <v>4593.287168</v>
       </c>
       <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4593.287168</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1015.651000022888</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>762</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3239</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>8761</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1921.042000055313</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>762</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3239</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>8761</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP26" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AQ26" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2749,45 +3807,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P27" t="n">
-        <v>513.6269998550415</v>
+        <v>505.3500001430511</v>
       </c>
       <c r="Q27" t="n">
         <v>754</v>
       </c>
       <c r="R27" t="n">
-        <v>7999</v>
+        <v>247</v>
       </c>
       <c r="S27" t="n">
         <v>8753</v>
       </c>
       <c r="T27" t="n">
-        <v>4589.092864</v>
+        <v>524.812288</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V27" t="n">
-        <v>4589.092864</v>
+        <v>528.912384</v>
       </c>
       <c r="W27" t="n">
-        <v>1919.218999862671</v>
+        <v>513.6269998550415</v>
       </c>
       <c r="X27" t="n">
         <v>754</v>
       </c>
       <c r="Y27" t="n">
-        <v>3247</v>
+        <v>7999</v>
       </c>
       <c r="Z27" t="n">
         <v>8753</v>
       </c>
       <c r="AA27" t="n">
-        <v>524.419072</v>
+        <v>4589.092864</v>
       </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4589.092864</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1011.739000082016</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>754</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3247</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8753</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1919.218999862671</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>754</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>3247</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>8753</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP27" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AQ27" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2838,45 +3938,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P28" t="n">
-        <v>508.3180000782013</v>
+        <v>408.0279998779297</v>
       </c>
       <c r="Q28" t="n">
         <v>758</v>
       </c>
       <c r="R28" t="n">
-        <v>7999</v>
+        <v>243</v>
       </c>
       <c r="S28" t="n">
         <v>8757</v>
       </c>
       <c r="T28" t="n">
-        <v>4591.190016</v>
+        <v>524.812288</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V28" t="n">
-        <v>4591.190016</v>
+        <v>528.912384</v>
       </c>
       <c r="W28" t="n">
-        <v>1918.230000019073</v>
+        <v>508.3180000782013</v>
       </c>
       <c r="X28" t="n">
         <v>758</v>
       </c>
       <c r="Y28" t="n">
-        <v>3243</v>
+        <v>7999</v>
       </c>
       <c r="Z28" t="n">
         <v>8757</v>
       </c>
       <c r="AA28" t="n">
-        <v>524.419072</v>
+        <v>4591.190016</v>
       </c>
       <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>4591.190016</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1011.855999946594</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>758</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3243</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8757</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1918.230000019073</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>758</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>3243</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>8757</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP28" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AQ28" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -2927,45 +4069,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P29" t="n">
-        <v>507.8220000267029</v>
+        <v>403.4700000286102</v>
       </c>
       <c r="Q29" t="n">
         <v>762</v>
       </c>
       <c r="R29" t="n">
-        <v>7999</v>
+        <v>239</v>
       </c>
       <c r="S29" t="n">
         <v>8761</v>
       </c>
       <c r="T29" t="n">
-        <v>4593.287168</v>
+        <v>524.812288</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V29" t="n">
-        <v>4593.287168</v>
+        <v>528.912384</v>
       </c>
       <c r="W29" t="n">
-        <v>1916.716000080109</v>
+        <v>507.8220000267029</v>
       </c>
       <c r="X29" t="n">
         <v>762</v>
       </c>
       <c r="Y29" t="n">
-        <v>3239</v>
+        <v>7999</v>
       </c>
       <c r="Z29" t="n">
         <v>8761</v>
       </c>
       <c r="AA29" t="n">
-        <v>524.419072</v>
+        <v>4593.287168</v>
       </c>
       <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>4593.287168</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1014.006999969482</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>762</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3239</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8761</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1916.716000080109</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>762</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>3239</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>8761</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP29" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AQ29" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3016,45 +4200,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P30" t="n">
-        <v>509.5</v>
+        <v>399.0380001068115</v>
       </c>
       <c r="Q30" t="n">
         <v>757</v>
       </c>
       <c r="R30" t="n">
-        <v>7999</v>
+        <v>244</v>
       </c>
       <c r="S30" t="n">
         <v>8756</v>
       </c>
       <c r="T30" t="n">
-        <v>4590.665728</v>
+        <v>524.812288</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V30" t="n">
-        <v>4590.665728</v>
+        <v>528.912384</v>
       </c>
       <c r="W30" t="n">
-        <v>1909.858000040054</v>
+        <v>509.5</v>
       </c>
       <c r="X30" t="n">
         <v>757</v>
       </c>
       <c r="Y30" t="n">
-        <v>3244</v>
+        <v>7999</v>
       </c>
       <c r="Z30" t="n">
         <v>8756</v>
       </c>
       <c r="AA30" t="n">
-        <v>524.419072</v>
+        <v>4590.665728</v>
       </c>
       <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>4590.665728</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1014.653000116348</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>757</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3244</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8756</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1909.858000040054</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>757</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>3244</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>8756</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP30" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AQ30" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3105,45 +4331,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P31" t="n">
-        <v>511.3669998645782</v>
+        <v>398.7269999980927</v>
       </c>
       <c r="Q31" t="n">
         <v>769</v>
       </c>
       <c r="R31" t="n">
-        <v>7999</v>
+        <v>232</v>
       </c>
       <c r="S31" t="n">
         <v>8768</v>
       </c>
       <c r="T31" t="n">
-        <v>4596.957184</v>
+        <v>524.812288</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V31" t="n">
-        <v>4596.957184</v>
+        <v>528.912384</v>
       </c>
       <c r="W31" t="n">
-        <v>1914.468999862671</v>
+        <v>511.3669998645782</v>
       </c>
       <c r="X31" t="n">
         <v>769</v>
       </c>
       <c r="Y31" t="n">
-        <v>3232</v>
+        <v>7999</v>
       </c>
       <c r="Z31" t="n">
         <v>8768</v>
       </c>
       <c r="AA31" t="n">
-        <v>524.419072</v>
+        <v>4596.957184</v>
       </c>
       <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>4596.957184</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1018.921999931335</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>769</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3232</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8768</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1914.468999862671</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>769</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>3232</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>8768</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP31" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AQ31" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3194,45 +4462,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P32" t="n">
-        <v>512.8650000095367</v>
+        <v>409.7330000400543</v>
       </c>
       <c r="Q32" t="n">
         <v>759</v>
       </c>
       <c r="R32" t="n">
-        <v>7999</v>
+        <v>242</v>
       </c>
       <c r="S32" t="n">
         <v>8758</v>
       </c>
       <c r="T32" t="n">
-        <v>4591.714304</v>
+        <v>524.812288</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V32" t="n">
-        <v>4591.714304</v>
+        <v>528.912384</v>
       </c>
       <c r="W32" t="n">
-        <v>1903.962000131607</v>
+        <v>512.8650000095367</v>
       </c>
       <c r="X32" t="n">
         <v>759</v>
       </c>
       <c r="Y32" t="n">
-        <v>3242</v>
+        <v>7999</v>
       </c>
       <c r="Z32" t="n">
         <v>8758</v>
       </c>
       <c r="AA32" t="n">
-        <v>524.419072</v>
+        <v>4591.714304</v>
       </c>
       <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>4591.714304</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1023.993999958038</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>759</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>3242</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8758</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1903.962000131607</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>759</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>3242</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>8758</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP32" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AQ32" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3283,45 +4593,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P33" t="n">
-        <v>513.9079999923706</v>
+        <v>402.0269999504089</v>
       </c>
       <c r="Q33" t="n">
         <v>759</v>
       </c>
       <c r="R33" t="n">
-        <v>7999</v>
+        <v>242</v>
       </c>
       <c r="S33" t="n">
         <v>8758</v>
       </c>
       <c r="T33" t="n">
-        <v>4591.714304</v>
+        <v>524.812288</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V33" t="n">
-        <v>4591.714304</v>
+        <v>528.912384</v>
       </c>
       <c r="W33" t="n">
-        <v>1910.355999946594</v>
+        <v>513.9079999923706</v>
       </c>
       <c r="X33" t="n">
         <v>759</v>
       </c>
       <c r="Y33" t="n">
-        <v>3242</v>
+        <v>7999</v>
       </c>
       <c r="Z33" t="n">
         <v>8758</v>
       </c>
       <c r="AA33" t="n">
-        <v>524.419072</v>
+        <v>4591.714304</v>
       </c>
       <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4591.714304</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1017.06299996376</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>759</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>3242</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8758</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1910.355999946594</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>759</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>3242</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>8758</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP33" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AQ33" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3372,45 +4724,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P34" t="n">
-        <v>511.0820000171661</v>
+        <v>397.1629998683929</v>
       </c>
       <c r="Q34" t="n">
         <v>523</v>
       </c>
       <c r="R34" t="n">
-        <v>7999</v>
+        <v>478</v>
       </c>
       <c r="S34" t="n">
         <v>8522</v>
       </c>
       <c r="T34" t="n">
-        <v>4467.982336</v>
+        <v>524.812288</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V34" t="n">
-        <v>4467.982336</v>
+        <v>528.912384</v>
       </c>
       <c r="W34" t="n">
-        <v>1856.033999919891</v>
+        <v>511.0820000171661</v>
       </c>
       <c r="X34" t="n">
         <v>523</v>
       </c>
       <c r="Y34" t="n">
-        <v>3478</v>
+        <v>7999</v>
       </c>
       <c r="Z34" t="n">
         <v>8522</v>
       </c>
       <c r="AA34" t="n">
-        <v>524.419072</v>
+        <v>4467.982336</v>
       </c>
       <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4467.982336</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>989.5670001506805</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>523</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>3478</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8522</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1856.033999919891</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>523</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>3478</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>8522</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP34" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AQ34" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3461,45 +4855,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P35" t="n">
-        <v>502.4869999885559</v>
+        <v>578.5920000076294</v>
       </c>
       <c r="Q35" t="n">
         <v>524</v>
       </c>
       <c r="R35" t="n">
-        <v>7999</v>
+        <v>477</v>
       </c>
       <c r="S35" t="n">
         <v>8523</v>
       </c>
       <c r="T35" t="n">
-        <v>4468.506624</v>
+        <v>524.812288</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V35" t="n">
-        <v>4468.506624</v>
+        <v>528.912384</v>
       </c>
       <c r="W35" t="n">
-        <v>1858.055999994278</v>
+        <v>502.4869999885559</v>
       </c>
       <c r="X35" t="n">
         <v>524</v>
       </c>
       <c r="Y35" t="n">
-        <v>3477</v>
+        <v>7999</v>
       </c>
       <c r="Z35" t="n">
         <v>8523</v>
       </c>
       <c r="AA35" t="n">
-        <v>524.419072</v>
+        <v>4468.506624</v>
       </c>
       <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4468.506624</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>987.8659999370575</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>524</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1858.055999994278</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>524</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP35" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AQ35" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3550,45 +4986,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P36" t="n">
-        <v>503.5889999866486</v>
+        <v>1161.966000080109</v>
       </c>
       <c r="Q36" t="n">
         <v>525</v>
       </c>
       <c r="R36" t="n">
-        <v>7999</v>
+        <v>476</v>
       </c>
       <c r="S36" t="n">
         <v>8524</v>
       </c>
       <c r="T36" t="n">
-        <v>4469.030912</v>
+        <v>524.812288</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V36" t="n">
-        <v>4469.030912</v>
+        <v>528.912384</v>
       </c>
       <c r="W36" t="n">
-        <v>1858.761000156403</v>
+        <v>503.5889999866486</v>
       </c>
       <c r="X36" t="n">
         <v>525</v>
       </c>
       <c r="Y36" t="n">
-        <v>3476</v>
+        <v>7999</v>
       </c>
       <c r="Z36" t="n">
         <v>8524</v>
       </c>
       <c r="AA36" t="n">
-        <v>524.419072</v>
+        <v>4469.030912</v>
       </c>
       <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4469.030912</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>987.8480000495911</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>525</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1858.761000156403</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>525</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP36" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AQ36" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3639,45 +5117,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P37" t="n">
-        <v>456.5450000762939</v>
+        <v>1156.141000032425</v>
       </c>
       <c r="Q37" t="n">
         <v>525</v>
       </c>
       <c r="R37" t="n">
-        <v>7999</v>
+        <v>476</v>
       </c>
       <c r="S37" t="n">
         <v>8524</v>
       </c>
       <c r="T37" t="n">
-        <v>4469.030912</v>
+        <v>524.812288</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V37" t="n">
-        <v>4469.030912</v>
+        <v>528.912384</v>
       </c>
       <c r="W37" t="n">
-        <v>1860.714999914169</v>
+        <v>456.5450000762939</v>
       </c>
       <c r="X37" t="n">
         <v>525</v>
       </c>
       <c r="Y37" t="n">
-        <v>3476</v>
+        <v>7999</v>
       </c>
       <c r="Z37" t="n">
         <v>8524</v>
       </c>
       <c r="AA37" t="n">
-        <v>524.419072</v>
+        <v>4469.030912</v>
       </c>
       <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4469.030912</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>988.3389999866486</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>525</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1860.714999914169</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>525</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP37" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AQ37" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3728,45 +5248,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P38" t="n">
-        <v>284.1589999198914</v>
+        <v>1165.786999940872</v>
       </c>
       <c r="Q38" t="n">
         <v>525</v>
       </c>
       <c r="R38" t="n">
-        <v>7999</v>
+        <v>476</v>
       </c>
       <c r="S38" t="n">
         <v>8524</v>
       </c>
       <c r="T38" t="n">
-        <v>4469.030912</v>
+        <v>524.812288</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V38" t="n">
-        <v>4469.030912</v>
+        <v>528.912384</v>
       </c>
       <c r="W38" t="n">
-        <v>1858.079999923706</v>
+        <v>284.1589999198914</v>
       </c>
       <c r="X38" t="n">
         <v>525</v>
       </c>
       <c r="Y38" t="n">
-        <v>3476</v>
+        <v>7999</v>
       </c>
       <c r="Z38" t="n">
         <v>8524</v>
       </c>
       <c r="AA38" t="n">
-        <v>524.419072</v>
+        <v>4469.030912</v>
       </c>
       <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4469.030912</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>757.4430000782013</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>525</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1858.079999923706</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>525</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP38" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AQ38" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3817,45 +5379,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P39" t="n">
-        <v>286.0620000362396</v>
+        <v>1167.141000032425</v>
       </c>
       <c r="Q39" t="n">
         <v>526</v>
       </c>
       <c r="R39" t="n">
-        <v>7999</v>
+        <v>475</v>
       </c>
       <c r="S39" t="n">
         <v>8525</v>
       </c>
       <c r="T39" t="n">
-        <v>4469.5552</v>
+        <v>524.812288</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V39" t="n">
-        <v>4469.5552</v>
+        <v>528.912384</v>
       </c>
       <c r="W39" t="n">
-        <v>1773.481000185013</v>
+        <v>286.0620000362396</v>
       </c>
       <c r="X39" t="n">
         <v>526</v>
       </c>
       <c r="Y39" t="n">
-        <v>3475</v>
+        <v>7999</v>
       </c>
       <c r="Z39" t="n">
         <v>8525</v>
       </c>
       <c r="AA39" t="n">
-        <v>524.419072</v>
+        <v>4469.5552</v>
       </c>
       <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4469.5552</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>737.1629998683929</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>526</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>3475</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8525</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1773.481000185013</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>526</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>3475</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>8525</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP39" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AQ39" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3906,45 +5510,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P40" t="n">
-        <v>288.0729999542236</v>
+        <v>1169.565999984741</v>
       </c>
       <c r="Q40" t="n">
         <v>524</v>
       </c>
       <c r="R40" t="n">
-        <v>7999</v>
+        <v>477</v>
       </c>
       <c r="S40" t="n">
         <v>8523</v>
       </c>
       <c r="T40" t="n">
-        <v>4468.506624</v>
+        <v>524.812288</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V40" t="n">
-        <v>4468.506624</v>
+        <v>528.912384</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.869999885559</v>
+        <v>288.0729999542236</v>
       </c>
       <c r="X40" t="n">
         <v>524</v>
       </c>
       <c r="Y40" t="n">
-        <v>3477</v>
+        <v>7999</v>
       </c>
       <c r="Z40" t="n">
         <v>8523</v>
       </c>
       <c r="AA40" t="n">
-        <v>524.419072</v>
+        <v>4468.506624</v>
       </c>
       <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4468.506624</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>674.5480000972748</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>524</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1032.869999885559</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>524</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP40" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AQ40" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -3995,45 +5641,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6170001029968</v>
+        <v>1167.533999919891</v>
       </c>
       <c r="Q41" t="n">
         <v>524</v>
       </c>
       <c r="R41" t="n">
-        <v>7999</v>
+        <v>477</v>
       </c>
       <c r="S41" t="n">
         <v>8523</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.506624</v>
+        <v>524.812288</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V41" t="n">
-        <v>4468.506624</v>
+        <v>528.912384</v>
       </c>
       <c r="W41" t="n">
-        <v>1025.072000026703</v>
+        <v>286.6170001029968</v>
       </c>
       <c r="X41" t="n">
         <v>524</v>
       </c>
       <c r="Y41" t="n">
-        <v>3477</v>
+        <v>7999</v>
       </c>
       <c r="Z41" t="n">
         <v>8523</v>
       </c>
       <c r="AA41" t="n">
-        <v>524.419072</v>
+        <v>4468.506624</v>
       </c>
       <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>4468.506624</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>429.0709998607635</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>524</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1025.072000026703</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>524</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP41" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AQ41" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -4084,45 +5772,87 @@
         <v>1343.823872</v>
       </c>
       <c r="P42" t="n">
-        <v>282.8269999027252</v>
+        <v>1168.373000144958</v>
       </c>
       <c r="Q42" t="n">
         <v>525</v>
       </c>
       <c r="R42" t="n">
-        <v>7999</v>
+        <v>476</v>
       </c>
       <c r="S42" t="n">
         <v>8524</v>
       </c>
       <c r="T42" t="n">
-        <v>4469.030912</v>
+        <v>524.812288</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V42" t="n">
-        <v>4469.030912</v>
+        <v>528.912384</v>
       </c>
       <c r="W42" t="n">
-        <v>1019.723999977112</v>
+        <v>282.8269999027252</v>
       </c>
       <c r="X42" t="n">
         <v>525</v>
       </c>
       <c r="Y42" t="n">
-        <v>3476</v>
+        <v>7999</v>
       </c>
       <c r="Z42" t="n">
         <v>8524</v>
       </c>
       <c r="AA42" t="n">
-        <v>524.419072</v>
+        <v>4469.030912</v>
       </c>
       <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4469.030912</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>427.324000120163</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>525</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1019.723999977112</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>525</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>8524</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP42" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AQ42" t="n">
         <v>1343.823872</v>
       </c>
     </row>
@@ -4173,53 +5903,97 @@
         <v>1343.823872</v>
       </c>
       <c r="P43" t="n">
-        <v>284.7080001831055</v>
+        <v>1167.178999900818</v>
       </c>
       <c r="Q43" t="n">
         <v>524</v>
       </c>
       <c r="R43" t="n">
-        <v>7999</v>
+        <v>477</v>
       </c>
       <c r="S43" t="n">
         <v>8523</v>
       </c>
       <c r="T43" t="n">
-        <v>4468.506624</v>
+        <v>524.812288</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4.100096</v>
       </c>
       <c r="V43" t="n">
-        <v>4468.506624</v>
+        <v>528.912384</v>
       </c>
       <c r="W43" t="n">
-        <v>1025.976000070572</v>
+        <v>284.7080001831055</v>
       </c>
       <c r="X43" t="n">
         <v>524</v>
       </c>
       <c r="Y43" t="n">
-        <v>3477</v>
+        <v>7999</v>
       </c>
       <c r="Z43" t="n">
         <v>8523</v>
       </c>
       <c r="AA43" t="n">
-        <v>524.419072</v>
+        <v>4468.506624</v>
       </c>
       <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>4468.506624</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>426.0069999694824</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>524</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>131.104768</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>655.5238400000001</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1025.976000070572</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>524</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>524.419072</v>
+      </c>
+      <c r="AP43" t="n">
         <v>819.4048</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AQ43" t="n">
         <v>1343.823872</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="I1:O1"/>
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="P1:V1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="W1:AC1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9796,67 +11570,67 @@
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="3" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="3" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="3" t="n"/>
       <c r="W1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
       <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="3" t="n"/>
       <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="n"/>
-      <c r="AM1" s="1" t="n"/>
-      <c r="AN1" s="1" t="n"/>
-      <c r="AO1" s="1" t="n"/>
-      <c r="AP1" s="1" t="n"/>
-      <c r="AQ1" s="1" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
